--- a/alphaApp/mainData.xlsx
+++ b/alphaApp/mainData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Documents\UPC-DESKTOP-1S4F8E7\Tesis\tfm-repo\alphaApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="107_{43A6708D-77D1-45C5-9D20-A59AED31C9E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7D6FA2AA-EB9F-4EBF-A8D5-97C6A73ABE83}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="107_{43A6708D-77D1-45C5-9D20-A59AED31C9E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4745CC5C-ACB2-4443-BAA5-028037E85B94}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{6639CBF0-1A6E-437C-903B-D5B18B74404F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{6639CBF0-1A6E-437C-903B-D5B18B74404F}"/>
   </bookViews>
   <sheets>
     <sheet name="machines" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,16 @@
   <definedNames>
     <definedName name="duration" localSheetId="4">Sheet1!$A$1:$C$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>TW-01</t>
   </si>
@@ -331,15 +337,6 @@
   </si>
   <si>
     <t>Predecessors</t>
-  </si>
-  <si>
-    <t>Task Cycle Time</t>
-  </si>
-  <si>
-    <t>Task Setup Time</t>
-  </si>
-  <si>
-    <t>Job Quantity</t>
   </si>
 </sst>
 </file>
@@ -704,15 +701,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -726,7 +723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -740,7 +737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -754,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -768,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -782,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -809,14 +806,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -827,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -838,7 +835,7 @@
         <v>30150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -856,22 +853,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B56C77-D033-44C5-8405-8BE16B8FF683}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -882,25 +879,22 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -910,21 +904,21 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>ROUND(E2+1.3*SUMIF(tasks!B$2:B$51,"= 1",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D2+1.3*SUMIF(tasks!B$2:B$51,"= 1",tasks!D$2:D$51),0)</f>
         <v>335</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -934,21 +928,21 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>ROUND(E3+1.3*SUMIF(tasks!B$2:B$51,"=2",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D3+1.3*SUMIF(tasks!B$2:B$51,"=2",tasks!D$2:D$51),0)</f>
         <v>242</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -958,21 +952,21 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>ROUND(E4+1.3*SUMIF(tasks!B$2:B$51,"=3",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D4+1.3*SUMIF(tasks!B$2:B$51,"=3",tasks!D$2:D$51),0)</f>
         <v>289</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -982,21 +976,21 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>ROUND(E5+1.3*SUMIF(tasks!B$2:B$51,"=4",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D5+1.3*SUMIF(tasks!B$2:B$51,"=4",tasks!D$2:D$51),0)</f>
         <v>460</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1006,21 +1000,21 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>ROUND(E6+1.3*SUMIF(tasks!B$2:B$51,"=5",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D6+1.3*SUMIF(tasks!B$2:B$51,"=5",tasks!D$2:D$51),0)</f>
         <v>308</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1030,21 +1024,21 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>ROUND(E7+1.3*SUMIF(tasks!B$2:B$51,"=6",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D7+1.3*SUMIF(tasks!B$2:B$51,"=6",tasks!D$2:D$51),0)</f>
         <v>429</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1054,21 +1048,21 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>ROUND(E8+1.3*SUMIF(tasks!B$2:B$51,"=7",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D8+1.3*SUMIF(tasks!B$2:B$51,"=7",tasks!D$2:D$51),0)</f>
         <v>537</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1078,21 +1072,21 @@
       <c r="C9" t="s">
         <v>35</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>ROUND(E9+1.3*SUMIF(tasks!B$2:B$51,"=8",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D9+1.3*SUMIF(tasks!B$2:B$51,"=8",tasks!D$2:D$51),0)</f>
         <v>320</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1102,21 +1096,21 @@
       <c r="C10" t="s">
         <v>36</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>ROUND(E10+1.3*SUMIF(tasks!B$2:B$51,"=9",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D10+1.3*SUMIF(tasks!B$2:B$51,"=9",tasks!D$2:D$51),0)</f>
         <v>303</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1126,17 +1120,17 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>ROUND(E11+1.3*SUMIF(tasks!B$2:B$51,"=10",tasks!G$2:G$51),0)</f>
+        <f>ROUND(D11+1.3*SUMIF(tasks!B$2:B$51,"=10",tasks!D$2:D$51),0)</f>
         <v>506</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="H11">
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
@@ -1165,24 +1159,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D94EBF3-B95F-4317-AA04-8FAA7B9C9F8E}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" customWidth="1"/>
+    <col min="7" max="7" width="12.53125" customWidth="1"/>
+    <col min="8" max="8" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1193,31 +1187,22 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>Sheet1!D2</f>
         <v>3</v>
@@ -1228,24 +1213,24 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="G2">
+      <c r="D2">
         <f>Sheet1!C2</f>
         <v>53</v>
       </c>
-      <c r="H2" t="str">
-        <f>VLOOKUP(I2,machines!A$2:D$6,4)</f>
+      <c r="E2" t="str">
+        <f>VLOOKUP(F2,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I2">
+      <c r="F2">
         <f>Sheet1!B2</f>
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="G2">
         <f>Sheet1!E2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>Sheet1!D3</f>
         <v>1</v>
@@ -1256,20 +1241,20 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="G3">
+      <c r="D3">
         <f>Sheet1!C3</f>
         <v>21</v>
       </c>
-      <c r="H3" t="str">
-        <f>VLOOKUP(I3,machines!A$2:D$6,4)</f>
+      <c r="E3" t="str">
+        <f>VLOOKUP(F3,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I3">
+      <c r="F3">
         <f>Sheet1!B3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>Sheet1!D4</f>
         <v>2</v>
@@ -1280,24 +1265,24 @@
       <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="D4">
         <f>Sheet1!C4</f>
         <v>34</v>
       </c>
-      <c r="H4" t="str">
-        <f>VLOOKUP(I4,machines!A$2:D$6,4)</f>
+      <c r="E4" t="str">
+        <f>VLOOKUP(F4,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I4">
+      <c r="F4">
         <f>Sheet1!B4</f>
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="G4">
         <f>Sheet1!E4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>Sheet1!D5</f>
         <v>4</v>
@@ -1308,24 +1293,24 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="G5">
+      <c r="D5">
         <f>Sheet1!C5</f>
         <v>55</v>
       </c>
-      <c r="H5" t="str">
-        <f>VLOOKUP(I5,machines!A$2:D$6,4)</f>
+      <c r="E5" t="str">
+        <f>VLOOKUP(F5,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I5">
+      <c r="F5">
         <f>Sheet1!B5</f>
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="G5">
         <f>Sheet1!E5</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>Sheet1!D6</f>
         <v>5</v>
@@ -1336,24 +1321,24 @@
       <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="G6">
+      <c r="D6">
         <f>Sheet1!C6</f>
         <v>95</v>
       </c>
-      <c r="H6" t="str">
-        <f>VLOOKUP(I6,machines!A$2:D$6,4)</f>
+      <c r="E6" t="str">
+        <f>VLOOKUP(F6,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I6">
+      <c r="F6">
         <f>Sheet1!B6</f>
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="G6">
         <f>Sheet1!E6</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>Sheet1!D7</f>
         <v>7</v>
@@ -1364,24 +1349,24 @@
       <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="G7">
+      <c r="D7">
         <f>Sheet1!C7</f>
         <v>21</v>
       </c>
-      <c r="H7" t="str">
-        <f>VLOOKUP(I7,machines!A$2:D$6,4)</f>
+      <c r="E7" t="str">
+        <f>VLOOKUP(F7,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I7">
+      <c r="F7">
         <f>Sheet1!B7</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="G7">
         <f>Sheet1!E7</f>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>Sheet1!D8</f>
         <v>10</v>
@@ -1392,24 +1377,24 @@
       <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="G8">
+      <c r="D8">
         <f>Sheet1!C8</f>
         <v>71</v>
       </c>
-      <c r="H8" t="str">
-        <f>VLOOKUP(I8,machines!A$2:D$6,4)</f>
+      <c r="E8" t="str">
+        <f>VLOOKUP(F8,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I8">
+      <c r="F8">
         <f>Sheet1!B8</f>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="G8">
         <f>Sheet1!E8</f>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>Sheet1!D9</f>
         <v>8</v>
@@ -1420,24 +1405,24 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="D9">
         <f>Sheet1!C9</f>
         <v>26</v>
       </c>
-      <c r="H9" t="str">
-        <f>VLOOKUP(I9,machines!A$2:D$6,4)</f>
+      <c r="E9" t="str">
+        <f>VLOOKUP(F9,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I9">
+      <c r="F9">
         <f>Sheet1!B9</f>
         <v>2</v>
       </c>
-      <c r="J9">
+      <c r="G9">
         <f>Sheet1!E9</f>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>Sheet1!D10</f>
         <v>9</v>
@@ -1448,24 +1433,24 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="G10">
+      <c r="D10">
         <f>Sheet1!C10</f>
         <v>52</v>
       </c>
-      <c r="H10" t="str">
-        <f>VLOOKUP(I10,machines!A$2:D$6,4)</f>
+      <c r="E10" t="str">
+        <f>VLOOKUP(F10,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I10">
+      <c r="F10">
         <f>Sheet1!B10</f>
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="G10">
         <f>Sheet1!E10</f>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>Sheet1!D11</f>
         <v>6</v>
@@ -1476,20 +1461,20 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="G11">
+      <c r="D11">
         <f>Sheet1!C11</f>
         <v>16</v>
       </c>
-      <c r="H11" t="str">
-        <f>VLOOKUP(I11,machines!A$2:D$6,4)</f>
+      <c r="E11" t="str">
+        <f>VLOOKUP(F11,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I11">
+      <c r="F11">
         <f>Sheet1!B11</f>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>Sheet1!D12</f>
         <v>11</v>
@@ -1500,20 +1485,20 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="G12">
+      <c r="D12">
         <f>Sheet1!C12</f>
         <v>12</v>
       </c>
-      <c r="H12" t="str">
-        <f>VLOOKUP(I12,machines!A$2:D$6,4)</f>
+      <c r="E12" t="str">
+        <f>VLOOKUP(F12,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I12">
+      <c r="F12">
         <f>Sheet1!B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>Sheet1!D13</f>
         <v>14</v>
@@ -1524,24 +1509,24 @@
       <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="G13">
+      <c r="D13">
         <f>Sheet1!C13</f>
         <v>42</v>
       </c>
-      <c r="H13" t="str">
-        <f>VLOOKUP(I13,machines!A$2:D$6,4)</f>
+      <c r="E13" t="str">
+        <f>VLOOKUP(F13,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I13">
+      <c r="F13">
         <f>Sheet1!B13</f>
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="G13">
         <f>Sheet1!E13</f>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>Sheet1!D14</f>
         <v>12</v>
@@ -1552,24 +1537,24 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="G14">
+      <c r="D14">
         <f>Sheet1!C14</f>
         <v>31</v>
       </c>
-      <c r="H14" t="str">
-        <f>VLOOKUP(I14,machines!A$2:D$6,4)</f>
+      <c r="E14" t="str">
+        <f>VLOOKUP(F14,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I14">
+      <c r="F14">
         <f>Sheet1!B14</f>
         <v>2</v>
       </c>
-      <c r="J14">
+      <c r="G14">
         <f>Sheet1!E14</f>
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>Sheet1!D15</f>
         <v>13</v>
@@ -1580,24 +1565,24 @@
       <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="G15">
+      <c r="D15">
         <f>Sheet1!C15</f>
         <v>39</v>
       </c>
-      <c r="H15" t="str">
-        <f>VLOOKUP(I15,machines!A$2:D$6,4)</f>
+      <c r="E15" t="str">
+        <f>VLOOKUP(F15,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I15">
+      <c r="F15">
         <f>Sheet1!B15</f>
         <v>3</v>
       </c>
-      <c r="J15">
+      <c r="G15">
         <f>Sheet1!E15</f>
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>Sheet1!D16</f>
         <v>15</v>
@@ -1608,24 +1593,24 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="G16">
+      <c r="D16">
         <f>Sheet1!C16</f>
         <v>98</v>
       </c>
-      <c r="H16" t="str">
-        <f>VLOOKUP(I16,machines!A$2:D$6,4)</f>
+      <c r="E16" t="str">
+        <f>VLOOKUP(F16,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I16">
+      <c r="F16">
         <f>Sheet1!B16</f>
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="G16">
         <f>Sheet1!E16</f>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>Sheet1!D17</f>
         <v>16</v>
@@ -1636,20 +1621,20 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="G17">
+      <c r="D17">
         <f>Sheet1!C17</f>
         <v>55</v>
       </c>
-      <c r="H17" t="str">
-        <f>VLOOKUP(I17,machines!A$2:D$6,4)</f>
+      <c r="E17" t="str">
+        <f>VLOOKUP(F17,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I17">
+      <c r="F17">
         <f>Sheet1!B17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>Sheet1!D18</f>
         <v>18</v>
@@ -1660,24 +1645,24 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="G18">
+      <c r="D18">
         <f>Sheet1!C18</f>
         <v>77</v>
       </c>
-      <c r="H18" t="str">
-        <f>VLOOKUP(I18,machines!A$2:D$6,4)</f>
+      <c r="E18" t="str">
+        <f>VLOOKUP(F18,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I18">
+      <c r="F18">
         <f>Sheet1!B18</f>
         <v>1</v>
       </c>
-      <c r="J18">
+      <c r="G18">
         <f>Sheet1!E18</f>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <f>Sheet1!D19</f>
         <v>17</v>
@@ -1688,24 +1673,24 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="D19">
         <f>Sheet1!C19</f>
         <v>66</v>
       </c>
-      <c r="H19" t="str">
-        <f>VLOOKUP(I19,machines!A$2:D$6,4)</f>
+      <c r="E19" t="str">
+        <f>VLOOKUP(F19,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I19">
+      <c r="F19">
         <f>Sheet1!B19</f>
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="G19">
         <f>Sheet1!E19</f>
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <f>Sheet1!D20</f>
         <v>19</v>
@@ -1716,24 +1701,24 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="G20">
+      <c r="D20">
         <f>Sheet1!C20</f>
         <v>77</v>
       </c>
-      <c r="H20" t="str">
-        <f>VLOOKUP(I20,machines!A$2:D$6,4)</f>
+      <c r="E20" t="str">
+        <f>VLOOKUP(F20,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I20">
+      <c r="F20">
         <f>Sheet1!B20</f>
         <v>3</v>
       </c>
-      <c r="J20">
+      <c r="G20">
         <f>Sheet1!E20</f>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <f>Sheet1!D21</f>
         <v>20</v>
@@ -1744,24 +1729,24 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="G21">
+      <c r="D21">
         <f>Sheet1!C21</f>
         <v>79</v>
       </c>
-      <c r="H21" t="str">
-        <f>VLOOKUP(I21,machines!A$2:D$6,4)</f>
+      <c r="E21" t="str">
+        <f>VLOOKUP(F21,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I21">
+      <c r="F21">
         <f>Sheet1!B21</f>
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="G21">
         <f>Sheet1!E21</f>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>Sheet1!D22</f>
         <v>25</v>
@@ -1772,24 +1757,24 @@
       <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="G22">
+      <c r="D22">
         <f>Sheet1!C22</f>
         <v>83</v>
       </c>
-      <c r="H22" t="str">
-        <f>VLOOKUP(I22,machines!A$2:D$6,4)</f>
+      <c r="E22" t="str">
+        <f>VLOOKUP(F22,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I22">
+      <c r="F22">
         <f>Sheet1!B22</f>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="G22">
         <f>Sheet1!E22</f>
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>Sheet1!D23</f>
         <v>21</v>
@@ -1800,20 +1785,20 @@
       <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="G23">
+      <c r="D23">
         <f>Sheet1!C23</f>
         <v>19</v>
       </c>
-      <c r="H23" t="str">
-        <f>VLOOKUP(I23,machines!A$2:D$6,4)</f>
+      <c r="E23" t="str">
+        <f>VLOOKUP(F23,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I23">
+      <c r="F23">
         <f>Sheet1!B23</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>Sheet1!D24</f>
         <v>24</v>
@@ -1824,24 +1809,24 @@
       <c r="C24" t="s">
         <v>65</v>
       </c>
-      <c r="G24">
+      <c r="D24">
         <f>Sheet1!C24</f>
         <v>64</v>
       </c>
-      <c r="H24" t="str">
-        <f>VLOOKUP(I24,machines!A$2:D$6,4)</f>
+      <c r="E24" t="str">
+        <f>VLOOKUP(F24,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I24">
+      <c r="F24">
         <f>Sheet1!B24</f>
         <v>2</v>
       </c>
-      <c r="J24">
+      <c r="G24">
         <f>Sheet1!E24</f>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>Sheet1!D25</f>
         <v>22</v>
@@ -1852,24 +1837,24 @@
       <c r="C25" t="s">
         <v>66</v>
       </c>
-      <c r="G25">
+      <c r="D25">
         <f>Sheet1!C25</f>
         <v>34</v>
       </c>
-      <c r="H25" t="str">
-        <f>VLOOKUP(I25,machines!A$2:D$6,4)</f>
+      <c r="E25" t="str">
+        <f>VLOOKUP(F25,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I25">
+      <c r="F25">
         <f>Sheet1!B25</f>
         <v>3</v>
       </c>
-      <c r="J25">
+      <c r="G25">
         <f>Sheet1!E25</f>
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>Sheet1!D26</f>
         <v>23</v>
@@ -1880,24 +1865,24 @@
       <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="G26">
+      <c r="D26">
         <f>Sheet1!C26</f>
         <v>37</v>
       </c>
-      <c r="H26" t="str">
-        <f>VLOOKUP(I26,machines!A$2:D$6,4)</f>
+      <c r="E26" t="str">
+        <f>VLOOKUP(F26,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I26">
+      <c r="F26">
         <f>Sheet1!B26</f>
         <v>4</v>
       </c>
-      <c r="J26">
+      <c r="G26">
         <f>Sheet1!E26</f>
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <f>Sheet1!D27</f>
         <v>30</v>
@@ -1908,24 +1893,24 @@
       <c r="C27" t="s">
         <v>68</v>
       </c>
-      <c r="G27">
+      <c r="D27">
         <f>Sheet1!C27</f>
         <v>92</v>
       </c>
-      <c r="H27" t="str">
-        <f>VLOOKUP(I27,machines!A$2:D$6,4)</f>
+      <c r="E27" t="str">
+        <f>VLOOKUP(F27,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I27">
+      <c r="F27">
         <f>Sheet1!B27</f>
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="G27">
         <f>Sheet1!E27</f>
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <f>Sheet1!D28</f>
         <v>27</v>
@@ -1936,24 +1921,24 @@
       <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="G28">
+      <c r="D28">
         <f>Sheet1!C28</f>
         <v>54</v>
       </c>
-      <c r="H28" t="str">
-        <f>VLOOKUP(I28,machines!A$2:D$6,4)</f>
+      <c r="E28" t="str">
+        <f>VLOOKUP(F28,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I28">
+      <c r="F28">
         <f>Sheet1!B28</f>
         <v>1</v>
       </c>
-      <c r="J28">
+      <c r="G28">
         <f>Sheet1!E28</f>
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>Sheet1!D29</f>
         <v>26</v>
@@ -1964,20 +1949,20 @@
       <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="G29">
+      <c r="D29">
         <f>Sheet1!C29</f>
         <v>43</v>
       </c>
-      <c r="H29" t="str">
-        <f>VLOOKUP(I29,machines!A$2:D$6,4)</f>
+      <c r="E29" t="str">
+        <f>VLOOKUP(F29,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I29">
+      <c r="F29">
         <f>Sheet1!B29</f>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>Sheet1!D30</f>
         <v>28</v>
@@ -1988,24 +1973,24 @@
       <c r="C30" t="s">
         <v>71</v>
       </c>
-      <c r="G30">
+      <c r="D30">
         <f>Sheet1!C30</f>
         <v>62</v>
       </c>
-      <c r="H30" t="str">
-        <f>VLOOKUP(I30,machines!A$2:D$6,4)</f>
+      <c r="E30" t="str">
+        <f>VLOOKUP(F30,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I30">
+      <c r="F30">
         <f>Sheet1!B30</f>
         <v>3</v>
       </c>
-      <c r="J30">
+      <c r="G30">
         <f>Sheet1!E30</f>
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <f>Sheet1!D31</f>
         <v>29</v>
@@ -2016,24 +2001,24 @@
       <c r="C31" t="s">
         <v>72</v>
       </c>
-      <c r="G31">
+      <c r="D31">
         <f>Sheet1!C31</f>
         <v>79</v>
       </c>
-      <c r="H31" t="str">
-        <f>VLOOKUP(I31,machines!A$2:D$6,4)</f>
+      <c r="E31" t="str">
+        <f>VLOOKUP(F31,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I31">
+      <c r="F31">
         <f>Sheet1!B31</f>
         <v>4</v>
       </c>
-      <c r="J31">
+      <c r="G31">
         <f>Sheet1!E31</f>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <f>Sheet1!D32</f>
         <v>35</v>
@@ -2044,24 +2029,24 @@
       <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="G32">
+      <c r="D32">
         <f>Sheet1!C32</f>
         <v>93</v>
       </c>
-      <c r="H32" t="str">
-        <f>VLOOKUP(I32,machines!A$2:D$6,4)</f>
+      <c r="E32" t="str">
+        <f>VLOOKUP(F32,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I32">
+      <c r="F32">
         <f>Sheet1!B32</f>
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="G32">
         <f>Sheet1!E32</f>
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>Sheet1!D33</f>
         <v>33</v>
@@ -2072,24 +2057,24 @@
       <c r="C33" t="s">
         <v>74</v>
       </c>
-      <c r="G33">
+      <c r="D33">
         <f>Sheet1!C33</f>
         <v>87</v>
       </c>
-      <c r="H33" t="str">
-        <f>VLOOKUP(I33,machines!A$2:D$6,4)</f>
+      <c r="E33" t="str">
+        <f>VLOOKUP(F33,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I33">
+      <c r="F33">
         <f>Sheet1!B33</f>
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="G33">
         <f>Sheet1!E33</f>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <f>Sheet1!D34</f>
         <v>34</v>
@@ -2100,24 +2085,24 @@
       <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="G34">
+      <c r="D34">
         <f>Sheet1!C34</f>
         <v>87</v>
       </c>
-      <c r="H34" t="str">
-        <f>VLOOKUP(I34,machines!A$2:D$6,4)</f>
+      <c r="E34" t="str">
+        <f>VLOOKUP(F34,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I34">
+      <c r="F34">
         <f>Sheet1!B34</f>
         <v>2</v>
       </c>
-      <c r="J34">
+      <c r="G34">
         <f>Sheet1!E34</f>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <f>Sheet1!D35</f>
         <v>31</v>
@@ -2128,20 +2113,20 @@
       <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="G35">
+      <c r="D35">
         <f>Sheet1!C35</f>
         <v>69</v>
       </c>
-      <c r="H35" t="str">
-        <f>VLOOKUP(I35,machines!A$2:D$6,4)</f>
+      <c r="E35" t="str">
+        <f>VLOOKUP(F35,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I35">
+      <c r="F35">
         <f>Sheet1!B35</f>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>Sheet1!D36</f>
         <v>32</v>
@@ -2152,24 +2137,24 @@
       <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="G36">
+      <c r="D36">
         <f>Sheet1!C36</f>
         <v>77</v>
       </c>
-      <c r="H36" t="str">
-        <f>VLOOKUP(I36,machines!A$2:D$6,4)</f>
+      <c r="E36" t="str">
+        <f>VLOOKUP(F36,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I36">
+      <c r="F36">
         <f>Sheet1!B36</f>
         <v>4</v>
       </c>
-      <c r="J36">
+      <c r="G36">
         <f>Sheet1!E36</f>
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>Sheet1!D37</f>
         <v>39</v>
@@ -2180,24 +2165,24 @@
       <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="G37">
+      <c r="D37">
         <f>Sheet1!C37</f>
         <v>60</v>
       </c>
-      <c r="H37" t="str">
-        <f>VLOOKUP(I37,machines!A$2:D$6,4)</f>
+      <c r="E37" t="str">
+        <f>VLOOKUP(F37,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I37">
+      <c r="F37">
         <f>Sheet1!B37</f>
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="G37">
         <f>Sheet1!E37</f>
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <f>Sheet1!D38</f>
         <v>38</v>
@@ -2208,24 +2193,24 @@
       <c r="C38" t="s">
         <v>79</v>
       </c>
-      <c r="G38">
+      <c r="D38">
         <f>Sheet1!C38</f>
         <v>41</v>
       </c>
-      <c r="H38" t="str">
-        <f>VLOOKUP(I38,machines!A$2:D$6,4)</f>
+      <c r="E38" t="str">
+        <f>VLOOKUP(F38,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I38">
+      <c r="F38">
         <f>Sheet1!B38</f>
         <v>1</v>
       </c>
-      <c r="J38">
+      <c r="G38">
         <f>Sheet1!E38</f>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <f>Sheet1!D39</f>
         <v>37</v>
@@ -2236,24 +2221,24 @@
       <c r="C39" t="s">
         <v>80</v>
       </c>
-      <c r="G39">
+      <c r="D39">
         <f>Sheet1!C39</f>
         <v>38</v>
       </c>
-      <c r="H39" t="str">
-        <f>VLOOKUP(I39,machines!A$2:D$6,4)</f>
+      <c r="E39" t="str">
+        <f>VLOOKUP(F39,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I39">
+      <c r="F39">
         <f>Sheet1!B39</f>
         <v>2</v>
       </c>
-      <c r="J39">
+      <c r="G39">
         <f>Sheet1!E39</f>
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <f>Sheet1!D40</f>
         <v>36</v>
@@ -2264,20 +2249,20 @@
       <c r="C40" t="s">
         <v>81</v>
       </c>
-      <c r="G40">
+      <c r="D40">
         <f>Sheet1!C40</f>
         <v>24</v>
       </c>
-      <c r="H40" t="str">
-        <f>VLOOKUP(I40,machines!A$2:D$6,4)</f>
+      <c r="E40" t="str">
+        <f>VLOOKUP(F40,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I40">
+      <c r="F40">
         <f>Sheet1!B40</f>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>Sheet1!D41</f>
         <v>40</v>
@@ -2288,24 +2273,24 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="G41">
+      <c r="D41">
         <f>Sheet1!C41</f>
         <v>83</v>
       </c>
-      <c r="H41" t="str">
-        <f>VLOOKUP(I41,machines!A$2:D$6,4)</f>
+      <c r="E41" t="str">
+        <f>VLOOKUP(F41,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I41">
+      <c r="F41">
         <f>Sheet1!B41</f>
         <v>4</v>
       </c>
-      <c r="J41">
+      <c r="G41">
         <f>Sheet1!E41</f>
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <f>Sheet1!D42</f>
         <v>43</v>
@@ -2316,24 +2301,24 @@
       <c r="C42" t="s">
         <v>83</v>
       </c>
-      <c r="G42">
+      <c r="D42">
         <f>Sheet1!C42</f>
         <v>44</v>
       </c>
-      <c r="H42" t="str">
-        <f>VLOOKUP(I42,machines!A$2:D$6,4)</f>
+      <c r="E42" t="str">
+        <f>VLOOKUP(F42,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I42">
+      <c r="F42">
         <f>Sheet1!B42</f>
         <v>0</v>
       </c>
-      <c r="J42">
+      <c r="G42">
         <f>Sheet1!E42</f>
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <f>Sheet1!D43</f>
         <v>44</v>
@@ -2344,24 +2329,24 @@
       <c r="C43" t="s">
         <v>84</v>
       </c>
-      <c r="G43">
+      <c r="D43">
         <f>Sheet1!C43</f>
         <v>49</v>
       </c>
-      <c r="H43" t="str">
-        <f>VLOOKUP(I43,machines!A$2:D$6,4)</f>
+      <c r="E43" t="str">
+        <f>VLOOKUP(F43,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I43">
+      <c r="F43">
         <f>Sheet1!B43</f>
         <v>1</v>
       </c>
-      <c r="J43">
+      <c r="G43">
         <f>Sheet1!E43</f>
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <f>Sheet1!D44</f>
         <v>45</v>
@@ -2372,24 +2357,24 @@
       <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="G44">
+      <c r="D44">
         <f>Sheet1!C44</f>
         <v>98</v>
       </c>
-      <c r="H44" t="str">
-        <f>VLOOKUP(I44,machines!A$2:D$6,4)</f>
+      <c r="E44" t="str">
+        <f>VLOOKUP(F44,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I44">
+      <c r="F44">
         <f>Sheet1!B44</f>
         <v>2</v>
       </c>
-      <c r="J44">
+      <c r="G44">
         <f>Sheet1!E44</f>
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>Sheet1!D45</f>
         <v>41</v>
@@ -2400,20 +2385,20 @@
       <c r="C45" t="s">
         <v>86</v>
       </c>
-      <c r="G45">
+      <c r="D45">
         <f>Sheet1!C45</f>
         <v>17</v>
       </c>
-      <c r="H45" t="str">
-        <f>VLOOKUP(I45,machines!A$2:D$6,4)</f>
+      <c r="E45" t="str">
+        <f>VLOOKUP(F45,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I45">
+      <c r="F45">
         <f>Sheet1!B45</f>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <f>Sheet1!D46</f>
         <v>42</v>
@@ -2424,24 +2409,24 @@
       <c r="C46" t="s">
         <v>87</v>
       </c>
-      <c r="G46">
+      <c r="D46">
         <f>Sheet1!C46</f>
         <v>25</v>
       </c>
-      <c r="H46" t="str">
-        <f>VLOOKUP(I46,machines!A$2:D$6,4)</f>
+      <c r="E46" t="str">
+        <f>VLOOKUP(F46,machines!A$2:D$6,4)</f>
         <v>LC</v>
       </c>
-      <c r="I46">
+      <c r="F46">
         <f>Sheet1!B46</f>
         <v>4</v>
       </c>
-      <c r="J46">
+      <c r="G46">
         <f>Sheet1!E46</f>
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <f>Sheet1!D47</f>
         <v>50</v>
@@ -2452,24 +2437,24 @@
       <c r="C47" t="s">
         <v>88</v>
       </c>
-      <c r="G47">
+      <c r="D47">
         <f>Sheet1!C47</f>
         <v>96</v>
       </c>
-      <c r="H47" t="str">
-        <f>VLOOKUP(I47,machines!A$2:D$6,4)</f>
+      <c r="E47" t="str">
+        <f>VLOOKUP(F47,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I47">
+      <c r="F47">
         <f>Sheet1!B47</f>
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="G47">
         <f>Sheet1!E47</f>
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>Sheet1!D48</f>
         <v>47</v>
@@ -2480,24 +2465,24 @@
       <c r="C48" t="s">
         <v>89</v>
       </c>
-      <c r="G48">
+      <c r="D48">
         <f>Sheet1!C48</f>
         <v>75</v>
       </c>
-      <c r="H48" t="str">
-        <f>VLOOKUP(I48,machines!A$2:D$6,4)</f>
+      <c r="E48" t="str">
+        <f>VLOOKUP(F48,machines!A$2:D$6,4)</f>
         <v>TW</v>
       </c>
-      <c r="I48">
+      <c r="F48">
         <f>Sheet1!B48</f>
         <v>1</v>
       </c>
-      <c r="J48">
+      <c r="G48">
         <f>Sheet1!E48</f>
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>Sheet1!D49</f>
         <v>46</v>
@@ -2508,20 +2493,20 @@
       <c r="C49" t="s">
         <v>90</v>
       </c>
-      <c r="G49">
+      <c r="D49">
         <f>Sheet1!C49</f>
         <v>43</v>
       </c>
-      <c r="H49" t="str">
-        <f>VLOOKUP(I49,machines!A$2:D$6,4)</f>
+      <c r="E49" t="str">
+        <f>VLOOKUP(F49,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I49">
+      <c r="F49">
         <f>Sheet1!B49</f>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>Sheet1!D50</f>
         <v>49</v>
@@ -2532,24 +2517,24 @@
       <c r="C50" t="s">
         <v>91</v>
       </c>
-      <c r="G50">
+      <c r="D50">
         <f>Sheet1!C50</f>
         <v>79</v>
       </c>
-      <c r="H50" t="str">
-        <f>VLOOKUP(I50,machines!A$2:D$6,4)</f>
+      <c r="E50" t="str">
+        <f>VLOOKUP(F50,machines!A$2:D$6,4)</f>
         <v>CNC</v>
       </c>
-      <c r="I50">
+      <c r="F50">
         <f>Sheet1!B50</f>
         <v>3</v>
       </c>
-      <c r="J50">
+      <c r="G50">
         <f>Sheet1!E50</f>
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <f>Sheet1!D51</f>
         <v>48</v>
@@ -2560,18 +2545,18 @@
       <c r="C51" t="s">
         <v>92</v>
       </c>
+      <c r="D51">
+        <v>96</v>
+      </c>
+      <c r="E51" t="str">
+        <f>VLOOKUP(F51,machines!A$2:D$6,4)</f>
+        <v>LC</v>
+      </c>
+      <c r="F51">
+        <f>Sheet1!B51</f>
+        <v>4</v>
+      </c>
       <c r="G51">
-        <v>96</v>
-      </c>
-      <c r="H51" t="str">
-        <f>VLOOKUP(I51,machines!A$2:D$6,4)</f>
-        <v>LC</v>
-      </c>
-      <c r="I51">
-        <f>Sheet1!B51</f>
-        <v>4</v>
-      </c>
-      <c r="J51">
         <f>Sheet1!E51</f>
         <v>47</v>
       </c>
@@ -2585,7 +2570,7 @@
           <x14:formula1>
             <xm:f>machines!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I51</xm:sqref>
+          <xm:sqref>F2:F51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B06DC037-BB93-4972-9EA3-B930CC649231}">
           <x14:formula1>
@@ -2607,14 +2592,14 @@
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2631,7 +2616,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2648,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2662,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2679,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2696,7 +2681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2713,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2730,7 +2715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2747,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2764,7 +2749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2781,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2795,7 +2780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2809,7 +2794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2826,7 +2811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2843,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2860,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2877,7 +2862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2891,7 +2876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2908,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2925,7 +2910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2942,7 +2927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2959,7 +2944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2976,7 +2961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2990,7 +2975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3007,7 +2992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3024,7 +3009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3041,7 +3026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>6</v>
       </c>
@@ -3058,7 +3043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>6</v>
       </c>
@@ -3075,7 +3060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3089,7 +3074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3106,7 +3091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3123,7 +3108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>7</v>
       </c>
@@ -3140,7 +3125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>7</v>
       </c>
@@ -3157,7 +3142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>7</v>
       </c>
@@ -3174,7 +3159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3188,7 +3173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>7</v>
       </c>
@@ -3205,7 +3190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3222,7 +3207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3239,7 +3224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>8</v>
       </c>
@@ -3256,7 +3241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3270,7 +3255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>8</v>
       </c>
@@ -3287,7 +3272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>9</v>
       </c>
@@ -3304,7 +3289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>9</v>
       </c>
@@ -3321,7 +3306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>9</v>
       </c>
@@ -3338,7 +3323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>9</v>
       </c>
@@ -3352,7 +3337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>9</v>
       </c>
@@ -3369,7 +3354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3386,7 +3371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>10</v>
       </c>
@@ -3403,7 +3388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>10</v>
       </c>
@@ -3417,7 +3402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>10</v>
       </c>
@@ -3434,7 +3419,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>10</v>
       </c>
@@ -3452,7 +3437,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
     <sortCondition ref="A2:A51"/>
     <sortCondition ref="B2:B51"/>
   </sortState>
